--- a/China_Acc_Results/Result/provinceLevel/China_EVCS.xlsx
+++ b/China_Acc_Results/Result/provinceLevel/China_EVCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectpolyu-my.sharepoint.com/personal/24046865g_connect_polyu_hk/Documents/Student Assistant/ChinaDynam/China_Acc_Results/Result/provinceLevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="11_AD4DA82427541F7ACA7EB830F08F16706AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B58F48-D060-4C48-B1E6-4F3396C74CB7}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_AD4DA82427541F7ACA7EB830F08F16706AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485734AE-46D7-41D1-B7F8-6A9FC622D7C0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,14 +167,19 @@
     <t>East China</t>
   </si>
   <si>
-    <t>Central South</t>
-  </si>
-  <si>
     <t>Southwest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Northwest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>2.1320000000000002E-3</v>
@@ -1183,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>4.2659999999999998E-3</v>
@@ -1221,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>2.0409999999999998E-3</v>
@@ -1259,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>2.1107999999999998E-2</v>
@@ -1297,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>3.9300000000000001E-4</v>
@@ -1335,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>3.6499999999999998E-4</v>
@@ -1373,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>2.362E-3</v>
@@ -1411,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>2.9859999999999999E-3</v>
@@ -1449,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>2.8200000000000002E-4</v>
@@ -1487,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>4.1199999999999999E-4</v>
@@ -1525,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>9.0000000000000002E-6</v>
@@ -1563,7 +1568,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>1.9729999999999999E-3</v>
@@ -1601,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>3.39E-4</v>
@@ -1639,7 +1644,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>2.4800000000000001E-4</v>
@@ -1677,7 +1682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>1.8900000000000001E-4</v>
@@ -1715,7 +1720,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>1.1900000000000001E-4</v>
@@ -1845,7 +1850,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="D19" sqref="A19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
